--- a/biology/Médecine/Embase/Embase.xlsx
+++ b/biology/Médecine/Embase/Embase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Embase est une base de données bibliographiques couvrant près de 8 500 revues biomédicales de 90 pays. 
 Elle est disponible en ligne à travers un certain nombre de fournisseurs d'interface de bases de données. Son accès est payant.
@@ -512,10 +524,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Embase est une base de données bibliographiques gérée par l'éditeur néerlandais Elsevier. Elle exploite les informations issues de près de 8 500 revues (dont environ 2 900 titres non indexés dans MEDLINE), mais aussi  d'environ 6 000 congrès, des livres ou de brevets. Environ 30 000 000 documents sont ainsi indexés[1],[2]. L'indexation exploite un thesaurus de Elsevier, Emtree[3].
-À la différence de MEDLINE, base concurrente, l'accès est payant moyennant un abonnement préalable. Elle complète la couverture offerte par MEDLINE. Sa mise à jour est quotidienne[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embase est une base de données bibliographiques gérée par l'éditeur néerlandais Elsevier. Elle exploite les informations issues de près de 8 500 revues (dont environ 2 900 titres non indexés dans MEDLINE), mais aussi  d'environ 6 000 congrès, des livres ou de brevets. Environ 30 000 000 documents sont ainsi indexés,. L'indexation exploite un thesaurus de Elsevier, Emtree.
+À la différence de MEDLINE, base concurrente, l'accès est payant moyennant un abonnement préalable. Elle complète la couverture offerte par MEDLINE. Sa mise à jour est quotidienne.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Domaines couverts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médecine alternative
 Sciences biologiques (médecine humaine)
